--- a/test-data/orange-test-data.xlsx
+++ b/test-data/orange-test-data.xlsx
@@ -4,9 +4,9 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet2" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="validLoginTest" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="invalidLoginTest" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="addValidEmployee" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="invalidLoginTest" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="addValidEmployeeTest" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="validLoginTest" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Username</t>
   </si>
@@ -22,70 +22,103 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Expected Error</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>kim123</t>
+  </si>
+  <si>
+    <t>kim124</t>
+  </si>
+  <si>
+    <t>kim125</t>
+  </si>
+  <si>
+    <t>kim126</t>
+  </si>
+  <si>
+    <t>kim127</t>
+  </si>
+  <si>
+    <t>kim128</t>
+  </si>
+  <si>
+    <t>kim129</t>
+  </si>
+  <si>
+    <t>kim130</t>
+  </si>
+  <si>
+    <t>kim131</t>
+  </si>
+  <si>
+    <t>kim132</t>
+  </si>
+  <si>
+    <t>kim133</t>
+  </si>
+  <si>
+    <t>kim134</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>middlename</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>expectedValue</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>wick</t>
+  </si>
+  <si>
+    <t>jack wick</t>
+  </si>
+  <si>
+    <t>jack2</t>
+  </si>
+  <si>
+    <t>j2</t>
+  </si>
+  <si>
+    <t>wick2</t>
+  </si>
+  <si>
+    <t>jack2 wick2</t>
+  </si>
+  <si>
     <t>Expected Value</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
     <t>Quick Launch</t>
-  </si>
-  <si>
-    <t>Expected Error</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>jskck</t>
-  </si>
-  <si>
-    <t>Invalid credentials</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>kim123</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>middlename</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>expectedValue</t>
-  </si>
-  <si>
-    <t>jack</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>wick</t>
-  </si>
-  <si>
-    <t>jack wick</t>
-  </si>
-  <si>
-    <t>jack2</t>
-  </si>
-  <si>
-    <t>j2</t>
-  </si>
-  <si>
-    <t>wick2</t>
-  </si>
-  <si>
-    <t>jack2 wick2</t>
   </si>
 </sst>
 </file>
@@ -367,6 +400,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="17.13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -387,6 +423,138 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -404,9 +572,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="3" max="3" width="17.13"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -416,29 +581,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -464,56 +656,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
